--- a/eagle/Bill of Materials.xlsx
+++ b/eagle/Bill of Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlauer\Documents\EAGLE\projects\Actuator Circle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D471B6-87B6-49F9-A7CB-EA06577277CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA3D35A-4F38-4550-8306-BBFF14951348}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{042452C7-4880-43A7-8CF4-773658CBA0E7}"/>
+    <workbookView xWindow="1905" yWindow="420" windowWidth="18435" windowHeight="13568" xr2:uid="{042452C7-4880-43A7-8CF4-773658CBA0E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>2 Pin Female Header 2.54mm</t>
   </si>
   <si>
-    <t>https://lcsc.com/product-detail/Pin-Header-Female-Header_Boom-Precision-Elec-2-54mm-1-40P-Reverse-bending-Headers-Pins_C74252.html</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_JST-Sales-America_B4B-PH-K-LF-SN_JST-Sales-America-B4B-PH-K-LF-SN_C265289.html</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>Pin Male Header Right Angle 2.54mm (40 pins breakaway)</t>
   </si>
   <si>
-    <t>Right angle needed for touch sensor connection. Buy a strip of 40 and then cut on your own.</t>
-  </si>
-  <si>
     <t>8 Pin Female Header 2.54mm</t>
   </si>
   <si>
@@ -382,6 +376,12 @@
   </si>
   <si>
     <t>R5, R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right angle needed for touch sensor connection. Actually, I had to create my own right angle ones from straight ones to be long enough. They need to be about 10mm long from the touch PCB down to the pin headers, so buy the longest straight ones you can and bend them, then cut to size after you try to fit. Or, you can buy them from digikey. </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/0022286043/WM22771-ND/3158673</t>
   </si>
 </sst>
 </file>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C5D6E-4F88-4FC8-8679-9566B7BD0E22}">
   <dimension ref="A2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -808,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3">
         <v>0.12</v>
@@ -877,18 +877,18 @@
         <v>0.24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3">
         <v>0.1</v>
@@ -901,10 +901,10 @@
         <v>0.1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -925,12 +925,12 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3">
         <v>0.13</v>
@@ -943,10 +943,10 @@
         <v>0.13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -967,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -988,15 +988,15 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3">
         <v>0.04</v>
@@ -1009,18 +1009,18 @@
         <v>0.04</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3">
         <v>0.02</v>
@@ -1033,15 +1033,15 @@
         <v>0.02</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
         <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3">
         <v>0.01</v>
@@ -1054,15 +1054,15 @@
         <v>0.01</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3">
         <v>0.01</v>
@@ -1075,15 +1075,15 @@
         <v>0.01</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
         <v>3.7999999999999999E-2</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3">
         <v>0.01</v>
@@ -1114,15 +1114,15 @@
         <v>0.02</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3">
         <v>0.02</v>
@@ -1135,10 +1135,10 @@
         <v>0.02</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1181,15 +1181,15 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3">
         <v>0.01</v>
@@ -1202,18 +1202,18 @@
         <v>0.02</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3">
         <v>0.01</v>
@@ -1226,15 +1226,15 @@
         <v>0.01</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3">
         <v>0.14000000000000001</v>
@@ -1247,10 +1247,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1313,12 +1313,12 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3">
         <v>0.17</v>
@@ -1331,15 +1331,15 @@
         <v>0.17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3">
         <v>1.6E-2</v>
@@ -1352,18 +1352,18 @@
         <v>1.6E-2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3">
         <v>7.3000000000000001E-3</v>
@@ -1376,15 +1376,15 @@
         <v>2.92E-2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3">
         <v>0.124</v>
@@ -1397,36 +1397,36 @@
         <v>0.124</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.88</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3">
         <v>0.14000000000000001</v>
@@ -1439,15 +1439,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
         <v>50</v>
-      </c>
-      <c r="G34" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3">
         <v>0.01</v>
@@ -1460,10 +1460,10 @@
         <v>0.01</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
@@ -1522,12 +1522,12 @@
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" s="3">
         <v>0.14000000000000001</v>
@@ -1540,10 +1540,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
@@ -1592,7 +1592,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" s="3">
         <v>1.08</v>
@@ -1605,10 +1605,10 @@
         <v>1.08</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.45">
@@ -1650,11 +1650,11 @@
     <row r="50" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C50" s="5">
         <f>SUM(C3:C49)</f>
-        <v>13.360299999999997</v>
+        <v>13.780299999999999</v>
       </c>
       <c r="E50" s="5">
         <f>SUM(E3:E49)</f>
-        <v>13.999199999999997</v>
+        <v>14.839199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1673,22 +1673,22 @@
     <hyperlink ref="F26" r:id="rId12" xr:uid="{94D6C458-F6DD-4735-BB87-2AD5655D8795}"/>
     <hyperlink ref="F27" r:id="rId13" xr:uid="{0A80C228-48E1-40C7-BD6D-D89BD448B46C}"/>
     <hyperlink ref="F28" r:id="rId14" xr:uid="{98C50EDF-B437-4024-8A7B-A282C0593D68}"/>
-    <hyperlink ref="F33" r:id="rId15" xr:uid="{1835C3E1-E1A1-41F5-B308-070DEF4D49DE}"/>
-    <hyperlink ref="F29" r:id="rId16" xr:uid="{3CC62D72-1772-4790-90E6-36DB3E1962B3}"/>
-    <hyperlink ref="F30" r:id="rId17" xr:uid="{6C045415-95DC-48A6-91F7-8B8DB0BE461E}"/>
-    <hyperlink ref="F31" r:id="rId18" xr:uid="{F5AAD225-E2C0-4EB4-9CCB-C70E19FBEC9C}"/>
-    <hyperlink ref="F34" r:id="rId19" xr:uid="{D8989BC4-A9AF-4A12-A838-4B97121E9B89}"/>
-    <hyperlink ref="F32" r:id="rId20" xr:uid="{4A0BDA12-A424-4DD1-902A-ED0A076A2699}"/>
-    <hyperlink ref="F11" r:id="rId21" xr:uid="{C6346A8E-C807-4FC3-9F4B-3D570CBC06BF}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{37D217EF-9AB2-45E9-895B-178853B89924}"/>
-    <hyperlink ref="F23" r:id="rId23" xr:uid="{549D0B47-1FBB-46D2-B0EA-57B4A99B521F}"/>
-    <hyperlink ref="F24" r:id="rId24" xr:uid="{881C1FD8-E161-45A2-8E7E-7F8C25716A5E}"/>
-    <hyperlink ref="F19" r:id="rId25" xr:uid="{27238FB0-B7A3-4019-96F9-36A0F6ECBF23}"/>
-    <hyperlink ref="F20" r:id="rId26" xr:uid="{5D3F6213-4A1F-4937-8CBD-E6D3DD1F76DA}"/>
-    <hyperlink ref="F35" r:id="rId27" xr:uid="{97A38A96-A11F-471A-AE61-7CA28D1FD289}"/>
-    <hyperlink ref="F8" r:id="rId28" xr:uid="{907C1FBC-B082-4DED-B7E5-40993A18F3EF}"/>
-    <hyperlink ref="F9" r:id="rId29" xr:uid="{12DF6E10-2708-4A68-840E-458CF2CD4FC6}"/>
-    <hyperlink ref="F40" r:id="rId30" xr:uid="{A1B10432-363C-4189-85B3-15C4321CB239}"/>
+    <hyperlink ref="F29" r:id="rId15" xr:uid="{3CC62D72-1772-4790-90E6-36DB3E1962B3}"/>
+    <hyperlink ref="F30" r:id="rId16" xr:uid="{6C045415-95DC-48A6-91F7-8B8DB0BE461E}"/>
+    <hyperlink ref="F31" r:id="rId17" xr:uid="{F5AAD225-E2C0-4EB4-9CCB-C70E19FBEC9C}"/>
+    <hyperlink ref="F34" r:id="rId18" xr:uid="{D8989BC4-A9AF-4A12-A838-4B97121E9B89}"/>
+    <hyperlink ref="F32" r:id="rId19" xr:uid="{4A0BDA12-A424-4DD1-902A-ED0A076A2699}"/>
+    <hyperlink ref="F11" r:id="rId20" xr:uid="{C6346A8E-C807-4FC3-9F4B-3D570CBC06BF}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{37D217EF-9AB2-45E9-895B-178853B89924}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{549D0B47-1FBB-46D2-B0EA-57B4A99B521F}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{881C1FD8-E161-45A2-8E7E-7F8C25716A5E}"/>
+    <hyperlink ref="F19" r:id="rId24" xr:uid="{27238FB0-B7A3-4019-96F9-36A0F6ECBF23}"/>
+    <hyperlink ref="F20" r:id="rId25" xr:uid="{5D3F6213-4A1F-4937-8CBD-E6D3DD1F76DA}"/>
+    <hyperlink ref="F35" r:id="rId26" xr:uid="{97A38A96-A11F-471A-AE61-7CA28D1FD289}"/>
+    <hyperlink ref="F8" r:id="rId27" xr:uid="{907C1FBC-B082-4DED-B7E5-40993A18F3EF}"/>
+    <hyperlink ref="F9" r:id="rId28" xr:uid="{12DF6E10-2708-4A68-840E-458CF2CD4FC6}"/>
+    <hyperlink ref="F40" r:id="rId29" xr:uid="{A1B10432-363C-4189-85B3-15C4321CB239}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{FFE5B824-FAB0-4158-95DD-14CE245D6374}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>

--- a/eagle/Bill of Materials.xlsx
+++ b/eagle/Bill of Materials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlauer\Documents\EAGLE\projects\Actuator Circle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlauer\Documents\GitHub\robot-actuator-esp32-v8\eagle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA3D35A-4F38-4550-8306-BBFF14951348}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B84AB24-9E53-4F87-8C42-4F815CCF26BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="420" windowWidth="18435" windowHeight="13568" xr2:uid="{042452C7-4880-43A7-8CF4-773658CBA0E7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Part</t>
   </si>
@@ -382,6 +382,27 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/0022286043/WM22771-ND/3158673</t>
+  </si>
+  <si>
+    <t>Higher end 35mm stepper Moon's</t>
+  </si>
+  <si>
+    <t>Not sure it's worth the money, but this motor is nice. I'm finding the cheaper motors are just about as good, but perhaps not as quiet or tight feeling as the Moon's.</t>
+  </si>
+  <si>
+    <t>https://www.moonsindustries.com/p/35mm-permanent-magnet-stepper-motors/35pm048s8-08001-000004611120001819</t>
+  </si>
+  <si>
+    <t>Another cheap 35mm that's really nice</t>
+  </si>
+  <si>
+    <t>This is a very nice motor and cheap, but you have to grind off the gear on the 3mm shaft, which is painful.</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32975464158.html</t>
+  </si>
+  <si>
+    <t>Other Stepper Motors</t>
   </si>
 </sst>
 </file>
@@ -781,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C5D6E-4F88-4FC8-8679-9566B7BD0E22}">
-  <dimension ref="A2:G50"/>
+  <dimension ref="A2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1641,13 +1662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E49" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C50" s="5">
         <f>SUM(C3:C49)</f>
         <v>13.780299999999999</v>
@@ -1655,6 +1676,53 @@
       <c r="E50" s="5">
         <f>SUM(E3:E49)</f>
         <v>14.839199999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="3">
+        <v>25</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" ref="E54" si="2">C54*D54</f>
+        <v>25</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" ref="E55" si="3">C55*D55</f>
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1689,8 +1757,10 @@
     <hyperlink ref="F9" r:id="rId28" xr:uid="{12DF6E10-2708-4A68-840E-458CF2CD4FC6}"/>
     <hyperlink ref="F40" r:id="rId29" xr:uid="{A1B10432-363C-4189-85B3-15C4321CB239}"/>
     <hyperlink ref="F33" r:id="rId30" xr:uid="{FFE5B824-FAB0-4158-95DD-14CE245D6374}"/>
+    <hyperlink ref="F54" r:id="rId31" xr:uid="{800B21F4-93AD-4F06-AE9F-84C9FE5917EA}"/>
+    <hyperlink ref="F55" r:id="rId32" xr:uid="{FBE06268-8BB2-4F6F-BAB2-B593CEEEF1F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
--- a/eagle/Bill of Materials.xlsx
+++ b/eagle/Bill of Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlauer\Documents\GitHub\robot-actuator-esp32-v8\eagle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF83B5BB-A9AA-4C83-8343-856E3D0B7877}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874D934-3E3A-4819-B4D5-999EEAE0781D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="420" windowWidth="18435" windowHeight="13568" xr2:uid="{042452C7-4880-43A7-8CF4-773658CBA0E7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{042452C7-4880-43A7-8CF4-773658CBA0E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Part</t>
   </si>
@@ -345,9 +345,6 @@
     <t>2x10 Pin Header Male for ESP32</t>
   </si>
   <si>
-    <t>https://lcsc.com/product-detail/Sensors_SK1816G-G03-K_C73293.html</t>
-  </si>
-  <si>
     <t>Place into slot on bottom of 3D printed actuator, then place compression 3D printed backing to keep in place as close to magnet as you can.</t>
   </si>
   <si>
@@ -406,6 +403,18 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Sensors_MH253EUA_C114370.html</t>
+  </si>
+  <si>
+    <t>4mm Acrylic Balls</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/9614k73</t>
+  </si>
+  <si>
+    <t>It's $4.28 per pack of 100. You need 34 per small actuator.</t>
   </si>
 </sst>
 </file>
@@ -809,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C5D6E-4F88-4FC8-8679-9566B7BD0E22}">
   <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -825,7 +834,7 @@
   <sheetData>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -936,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -957,7 +966,7 @@
         <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -978,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -999,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1197,7 +1206,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>92</v>
@@ -1221,7 +1230,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
         <v>93</v>
@@ -1429,10 +1438,10 @@
         <v>0.88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1532,7 +1541,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3">
         <v>0.14000000000000001</v>
@@ -1545,10 +1554,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" t="s">
         <v>104</v>
-      </c>
-      <c r="G38" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
@@ -1597,7 +1606,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3">
         <v>1.08</v>
@@ -1610,36 +1619,52 @@
         <v>1.08</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="3">
+        <f>4.28/3</f>
+        <v>1.4266666666666667</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
       <c r="E42" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4266666666666667</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C43" s="5">
         <f>SUM(C3:C42)</f>
-        <v>13.780299999999999</v>
+        <v>15.206966666666666</v>
       </c>
       <c r="E43" s="5">
         <f>SUM(E3:E42)</f>
-        <v>14.839199999999996</v>
+        <v>16.265866666666664</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="3">
         <v>25</v>
@@ -1652,15 +1677,15 @@
         <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="3">
         <v>3</v>
@@ -1673,10 +1698,10 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1709,12 +1734,13 @@
     <hyperlink ref="F33" r:id="rId26" xr:uid="{97A38A96-A11F-471A-AE61-7CA28D1FD289}"/>
     <hyperlink ref="F6" r:id="rId27" xr:uid="{907C1FBC-B082-4DED-B7E5-40993A18F3EF}"/>
     <hyperlink ref="F7" r:id="rId28" xr:uid="{12DF6E10-2708-4A68-840E-458CF2CD4FC6}"/>
-    <hyperlink ref="F38" r:id="rId29" xr:uid="{A1B10432-363C-4189-85B3-15C4321CB239}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{FFE5B824-FAB0-4158-95DD-14CE245D6374}"/>
-    <hyperlink ref="F47" r:id="rId31" xr:uid="{800B21F4-93AD-4F06-AE9F-84C9FE5917EA}"/>
-    <hyperlink ref="F48" r:id="rId32" xr:uid="{FBE06268-8BB2-4F6F-BAB2-B593CEEEF1F5}"/>
+    <hyperlink ref="F31" r:id="rId29" xr:uid="{FFE5B824-FAB0-4158-95DD-14CE245D6374}"/>
+    <hyperlink ref="F47" r:id="rId30" xr:uid="{800B21F4-93AD-4F06-AE9F-84C9FE5917EA}"/>
+    <hyperlink ref="F48" r:id="rId31" xr:uid="{FBE06268-8BB2-4F6F-BAB2-B593CEEEF1F5}"/>
+    <hyperlink ref="F38" r:id="rId32" xr:uid="{9E7B7476-824A-4509-8219-7FFCB780F10F}"/>
+    <hyperlink ref="F42" r:id="rId33" xr:uid="{D166C533-FF6E-4D8F-91F4-BCD1C3A82586}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
 </worksheet>
 </file>
--- a/eagle/Bill of Materials.xlsx
+++ b/eagle/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlauer\Documents\GitHub\robot-actuator-esp32-v8\eagle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874D934-3E3A-4819-B4D5-999EEAE0781D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FCE3C8-E511-4026-93E5-B10C87E64CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{042452C7-4880-43A7-8CF4-773658CBA0E7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Part</t>
   </si>
@@ -415,6 +415,15 @@
   </si>
   <si>
     <t>It's $4.28 per pack of 100. You need 34 per small actuator.</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>JP2, JP3</t>
   </si>
 </sst>
 </file>
@@ -818,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C5D6E-4F88-4FC8-8679-9566B7BD0E22}">
   <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -905,7 +914,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>103</v>
@@ -949,6 +958,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -1013,7 +1025,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -1037,7 +1049,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -1060,6 +1072,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
       <c r="B14" t="s">
         <v>96</v>
       </c>
@@ -1081,6 +1096,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
       <c r="B15" t="s">
         <v>97</v>
       </c>
@@ -1379,9 +1397,6 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -1465,7 +1480,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
@@ -1486,7 +1504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -1517,7 +1535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -1539,7 +1557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>105</v>
       </c>
@@ -1560,7 +1578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>106</v>
       </c>
@@ -1625,7 +1643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>125</v>
       </c>
@@ -1647,7 +1665,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C43" s="5">
         <f>SUM(C3:C42)</f>
         <v>15.206966666666666</v>
@@ -1657,12 +1675,12 @@
         <v>16.265866666666664</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>116</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>119</v>
       </c>
@@ -1739,8 +1757,12 @@
     <hyperlink ref="F48" r:id="rId31" xr:uid="{FBE06268-8BB2-4F6F-BAB2-B593CEEEF1F5}"/>
     <hyperlink ref="F38" r:id="rId32" xr:uid="{9E7B7476-824A-4509-8219-7FFCB780F10F}"/>
     <hyperlink ref="F42" r:id="rId33" xr:uid="{D166C533-FF6E-4D8F-91F4-BCD1C3A82586}"/>
+    <hyperlink ref="F12" r:id="rId34" xr:uid="{9A34347D-7D1E-49EE-8796-375F948619F1}"/>
+    <hyperlink ref="F14" r:id="rId35" xr:uid="{C4576FD0-CCAC-4B01-A0F6-9BF4AD653BED}"/>
+    <hyperlink ref="F15" r:id="rId36" xr:uid="{90518674-B9D9-4622-994D-310A25563C1A}"/>
+    <hyperlink ref="F13" r:id="rId37" xr:uid="{A5B982B0-8044-4FA3-8921-2B1DB1968ADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
 </worksheet>
 </file>